--- a/data/trans_bre/P7_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P7_R-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,28; 6,72</t>
+          <t>1,0; 6,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 5,5</t>
+          <t>0,04; 5,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 1,36</t>
+          <t>-2,75; 1,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 8,05</t>
+          <t>-1,88; 7,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>24,83; 359,63</t>
+          <t>16,28; 338,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-13,84; 276,35</t>
+          <t>-3,75; 273,16</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-71,59; 93,31</t>
+          <t>-70,09; 84,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-47,22; 737,91</t>
+          <t>-46,77; 755,36</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,61; 10,65</t>
+          <t>4,74; 11,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,21; 6,53</t>
+          <t>0,5; 6,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 5,5</t>
+          <t>-0,06; 5,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 0,65</t>
+          <t>-6,27; 0,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>74,79; 302,9</t>
+          <t>79,22; 319,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,39; 144,29</t>
+          <t>4,51; 146,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 170,09</t>
+          <t>-3,37; 164,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-67,28; 19,67</t>
+          <t>-67,62; 23,33</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,21; 11,56</t>
+          <t>4,44; 11,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,03; 11,51</t>
+          <t>4,56; 11,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,7; 6,51</t>
+          <t>0,45; 6,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 4,74</t>
+          <t>-1,8; 4,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>36,74; 143,62</t>
+          <t>39,35; 152,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>35,75; 144,81</t>
+          <t>39,16; 146,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,86; 119,29</t>
+          <t>3,7; 125,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-13,54; 82,98</t>
+          <t>-17,77; 78,54</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,06; 20,07</t>
+          <t>9,97; 20,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,83; 13,49</t>
+          <t>4,49; 13,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 6,05</t>
+          <t>-2,9; 6,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 6,85</t>
+          <t>-1,09; 7,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>62,61; 187,65</t>
+          <t>64,71; 183,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,51; 108,85</t>
+          <t>25,36; 110,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-14,96; 38,57</t>
+          <t>-13,94; 38,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 55,62</t>
+          <t>-5,9; 62,34</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,65; 17,79</t>
+          <t>4,7; 17,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,43; 19,59</t>
+          <t>6,94; 20,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,01; 16,62</t>
+          <t>4,23; 16,76</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,86; 9,61</t>
+          <t>1,06; 10,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>14,45; 69,16</t>
+          <t>14,12; 70,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>21,9; 91,97</t>
+          <t>22,93; 95,15</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>14,5; 75,77</t>
+          <t>14,58; 74,52</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,87; 39,72</t>
+          <t>3,43; 41,88</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>13,52; 24,73</t>
+          <t>13,4; 24,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,79; 17,97</t>
+          <t>6,42; 17,88</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>13,32; 24,01</t>
+          <t>13,46; 23,71</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 17,11</t>
+          <t>-3,95; 17,27</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>27,36; 59,86</t>
+          <t>27,18; 58,91</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>12,0; 42,65</t>
+          <t>12,69; 41,7</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>33,79; 73,08</t>
+          <t>33,78; 71,36</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-8,4; 49,62</t>
+          <t>-9,97; 51,44</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,09; 15,1</t>
+          <t>11,06; 15,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,1; 12,23</t>
+          <t>7,96; 12,04</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,13; 10,02</t>
+          <t>6,23; 10,3</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,98; 7,49</t>
+          <t>2,83; 7,65</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>66,42; 102,7</t>
+          <t>66,83; 103,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>46,43; 78,67</t>
+          <t>45,32; 76,66</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>36,78; 67,25</t>
+          <t>37,08; 69,86</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>16,55; 45,65</t>
+          <t>15,37; 45,37</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P7_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P7_R-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 6,43</t>
+          <t>1,17; 6,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,04; 5,58</t>
+          <t>-0,11; 5,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 1,44</t>
+          <t>-2,62; 1,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,28; 338,91</t>
+          <t>21,86; 335,79</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 273,16</t>
+          <t>-11,06; 234,6</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-70,09; 84,07</t>
+          <t>-70,14; 99,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,74; 11,04</t>
+          <t>4,67; 10,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,5; 6,83</t>
+          <t>0,69; 6,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 5,17</t>
+          <t>-0,17; 5,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>79,22; 319,26</t>
+          <t>78,38; 316,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,51; 146,86</t>
+          <t>6,14; 133,64</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 164,51</t>
+          <t>-5,42; 172,74</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,44; 11,76</t>
+          <t>4,39; 12,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,56; 11,29</t>
+          <t>3,95; 11,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,45; 6,69</t>
+          <t>0,52; 6,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>39,35; 152,45</t>
+          <t>39,45; 154,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>39,16; 146,07</t>
+          <t>37,14; 151,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,7; 125,14</t>
+          <t>6,09; 120,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,97; 20,18</t>
+          <t>9,7; 19,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,49; 13,98</t>
+          <t>4,1; 13,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 6,34</t>
+          <t>-2,57; 6,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>64,71; 183,06</t>
+          <t>63,96; 191,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>25,36; 110,54</t>
+          <t>23,39; 104,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-13,94; 38,73</t>
+          <t>-12,89; 40,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,7; 17,98</t>
+          <t>4,92; 17,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,94; 20,37</t>
+          <t>7,18; 20,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,23; 16,76</t>
+          <t>3,8; 16,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>14,12; 70,53</t>
+          <t>15,52; 69,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>22,93; 95,15</t>
+          <t>24,99; 93,66</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>14,58; 74,52</t>
+          <t>13,41; 74,55</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>13,4; 24,53</t>
+          <t>13,43; 24,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,42; 17,88</t>
+          <t>6,62; 18,17</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>13,46; 23,71</t>
+          <t>12,4; 23,35</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>27,18; 58,91</t>
+          <t>28,03; 58,52</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>12,69; 41,7</t>
+          <t>13,22; 42,79</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>33,78; 71,36</t>
+          <t>31,04; 69,43</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,06; 15,1</t>
+          <t>10,91; 14,79</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,96; 12,04</t>
+          <t>8,09; 12,04</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,23; 10,3</t>
+          <t>6,19; 10,13</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>66,83; 103,0</t>
+          <t>66,4; 99,1</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>45,32; 76,66</t>
+          <t>45,46; 77,13</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>37,08; 69,86</t>
+          <t>37,51; 68,17</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">

--- a/data/trans_bre/P7_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P7_R-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,17; 6,73</t>
+          <t>1,28; 6,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 5,39</t>
+          <t>-0,51; 5,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 1,46</t>
+          <t>-2,94; 1,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 7,66</t>
+          <t>-2,0; 8,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>21,86; 335,79</t>
+          <t>24,83; 359,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,06; 234,6</t>
+          <t>-13,84; 276,35</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-70,14; 99,99</t>
+          <t>-71,59; 93,31</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-46,77; 755,36</t>
+          <t>-47,22; 737,91</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,67; 10,74</t>
+          <t>4,61; 10,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,69; 6,37</t>
+          <t>0,21; 6,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 5,28</t>
+          <t>-0,01; 5,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 0,81</t>
+          <t>-6,48; 0,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>78,38; 316,47</t>
+          <t>74,79; 302,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,14; 133,64</t>
+          <t>1,39; 144,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 172,74</t>
+          <t>-2,64; 170,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-67,62; 23,33</t>
+          <t>-67,28; 19,67</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,39; 12,24</t>
+          <t>4,21; 11,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,95; 11,18</t>
+          <t>4,03; 11,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,52; 6,83</t>
+          <t>0,7; 6,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 4,69</t>
+          <t>-1,29; 4,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>39,45; 154,3</t>
+          <t>36,74; 143,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>37,14; 151,74</t>
+          <t>35,75; 144,81</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,09; 120,41</t>
+          <t>7,86; 119,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-17,77; 78,54</t>
+          <t>-13,54; 82,98</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,7; 19,86</t>
+          <t>10,06; 20,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,1; 13,33</t>
+          <t>3,83; 13,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 6,3</t>
+          <t>-3,01; 6,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 7,16</t>
+          <t>-1,22; 6,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>63,96; 191,62</t>
+          <t>62,61; 187,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>23,39; 104,79</t>
+          <t>22,51; 108,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-12,89; 40,8</t>
+          <t>-14,96; 38,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 62,34</t>
+          <t>-6,58; 55,62</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,92; 17,75</t>
+          <t>4,65; 17,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,18; 20,13</t>
+          <t>6,43; 19,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,8; 16,28</t>
+          <t>4,01; 16,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,06; 10,08</t>
+          <t>0,86; 9,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,52; 69,09</t>
+          <t>14,45; 69,16</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>24,99; 93,66</t>
+          <t>21,9; 91,97</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,41; 74,55</t>
+          <t>14,5; 75,77</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,43; 41,88</t>
+          <t>2,87; 39,72</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>13,43; 24,61</t>
+          <t>13,52; 24,73</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,62; 18,17</t>
+          <t>5,79; 17,97</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>12,4; 23,35</t>
+          <t>13,32; 24,01</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 17,27</t>
+          <t>-3,15; 17,11</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>28,03; 58,52</t>
+          <t>27,36; 59,86</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>13,22; 42,79</t>
+          <t>12,0; 42,65</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>31,04; 69,43</t>
+          <t>33,79; 73,08</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-9,97; 51,44</t>
+          <t>-8,4; 49,62</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>10,91; 14,79</t>
+          <t>11,09; 15,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,09; 12,04</t>
+          <t>8,1; 12,23</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,19; 10,13</t>
+          <t>6,13; 10,02</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,83; 7,65</t>
+          <t>2,98; 7,49</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>66,4; 99,1</t>
+          <t>66,42; 102,7</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>45,46; 77,13</t>
+          <t>46,43; 78,67</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>37,51; 68,17</t>
+          <t>36,78; 67,25</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>15,37; 45,37</t>
+          <t>16,55; 45,65</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P7_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P7_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,83</t>
+          <t>3,71</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>88,39%</t>
+          <t>114,82%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 8,05</t>
+          <t>-1,43; 10,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,14 +703,14 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-47,22; 737,91</t>
+          <t>-40,26; 935,59</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,5</t>
+          <t>-3,04</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-36,98%</t>
+          <t>-43,67%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 0,65</t>
+          <t>-7,2; 0,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-67,28; 19,67</t>
+          <t>-72,99; 8,57</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,78</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>23,05%</t>
+          <t>18,27%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 4,74</t>
+          <t>-2,05; 4,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-13,54; 82,98</t>
+          <t>-20,44; 73,19</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,73</t>
+          <t>5,61</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>18,25%</t>
+          <t>47,69%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 6,85</t>
+          <t>-0,45; 14,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 55,62</t>
+          <t>-1,97; 219,35</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,6</t>
+          <t>5,22</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>20,72%</t>
+          <t>19,08%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,86; 9,61</t>
+          <t>0,4; 9,31</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,87; 39,72</t>
+          <t>1,26; 37,75</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>18,98</t>
+          <t>20,49</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>12,17</t>
+          <t>10,93</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>18,53</t>
+          <t>16,34</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>10,36</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>42,14%</t>
+          <t>53,94%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>26,48%</t>
+          <t>29,48%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>50,66%</t>
+          <t>54,11%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>29,44%</t>
+          <t>-3,66%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>13,52; 24,73</t>
+          <t>13,15; 28,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,79; 17,97</t>
+          <t>2,44; 18,42</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>13,32; 24,01</t>
+          <t>8,45; 22,9</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 17,11</t>
+          <t>-19,37; 14,52</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>27,36; 59,86</t>
+          <t>31,85; 86,71</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>12,0; 42,65</t>
+          <t>6,11; 56,51</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>33,79; 73,08</t>
+          <t>25,12; 86,26</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-8,4; 49,62</t>
+          <t>-66,26; 53,31</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>12,99</t>
+          <t>14,84</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>10,02</t>
+          <t>10,38</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,18</t>
+          <t>18,29</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,62</t>
+          <t>16,14</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>83,06%</t>
+          <t>27,05%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>60,1%</t>
+          <t>18,24%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>52,13%</t>
+          <t>40,73%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>31,68%</t>
+          <t>36,39%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>6,78; 24,16</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2,52; 19,05</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>10,21; 25,73</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>9,76; 21,72</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>11,64; 49,31</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>3,83; 37,34</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>20,87; 63,2</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>20,44; 53,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>12,99</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>10,02</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>8,18</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>5,61</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>83,06%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>60,1%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>52,13%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>34,01%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>11,09; 15,1</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>8,1; 12,23</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>6,13; 10,02</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>2,98; 7,49</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>1,78; 9,16</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>66,42; 102,7</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>46,43; 78,67</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>36,78; 67,25</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>16,55; 45,65</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>11,18; 66,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P7_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P7_R-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,28; 6,72</t>
+          <t>1,11; 6,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 5,5</t>
+          <t>-0,06; 5,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 1,36</t>
+          <t>-3,11; 1,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 10,08</t>
+          <t>-1,69; 10,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>24,83; 359,63</t>
+          <t>23,04; 360,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-13,84; 276,35</t>
+          <t>-4,05; 240,96</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-71,59; 93,31</t>
+          <t>-72,45; 100,37</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-40,26; 935,59</t>
+          <t>-43,08; 912,58</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,61; 10,65</t>
+          <t>4,89; 10,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,21; 6,53</t>
+          <t>0,25; 6,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 5,5</t>
+          <t>-0,14; 5,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,2; 0,34</t>
+          <t>-7,42; 0,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>74,79; 302,9</t>
+          <t>86,41; 317,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,39; 144,29</t>
+          <t>1,96; 142,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 170,09</t>
+          <t>-3,49; 174,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-72,99; 8,57</t>
+          <t>-74,6; 11,28</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,21; 11,56</t>
+          <t>3,94; 11,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,03; 11,51</t>
+          <t>3,85; 11,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,7; 6,51</t>
+          <t>0,45; 6,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 4,42</t>
+          <t>-1,91; 4,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>36,74; 143,62</t>
+          <t>34,95; 152,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>35,75; 144,81</t>
+          <t>33,85; 145,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,86; 119,29</t>
+          <t>5,2; 128,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-20,44; 73,19</t>
+          <t>-20,1; 78,36</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,06; 20,07</t>
+          <t>9,51; 20,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,83; 13,49</t>
+          <t>4,31; 13,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 6,05</t>
+          <t>-2,78; 6,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 14,04</t>
+          <t>-0,07; 13,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>62,61; 187,65</t>
+          <t>60,14; 186,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,51; 108,85</t>
+          <t>24,29; 104,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-14,96; 38,57</t>
+          <t>-13,52; 39,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 219,35</t>
+          <t>-0,43; 308,34</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,65; 17,79</t>
+          <t>4,58; 18,5</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,43; 19,59</t>
+          <t>6,96; 19,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,01; 16,62</t>
+          <t>4,02; 16,77</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,4; 9,31</t>
+          <t>0,69; 9,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>14,45; 69,16</t>
+          <t>15,05; 72,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>21,9; 91,97</t>
+          <t>26,15; 93,52</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>14,5; 75,77</t>
+          <t>14,83; 75,6</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,26; 37,75</t>
+          <t>2,18; 38,58</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>13,15; 28,35</t>
+          <t>12,87; 27,38</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,44; 18,42</t>
+          <t>2,37; 18,9</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,45; 22,9</t>
+          <t>9,44; 23,08</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-19,37; 14,52</t>
+          <t>-17,34; 14,63</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>31,85; 86,71</t>
+          <t>30,37; 81,51</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,11; 56,51</t>
+          <t>5,37; 57,49</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>25,12; 86,26</t>
+          <t>26,67; 84,26</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-66,26; 53,31</t>
+          <t>-57,09; 53,62</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,78; 24,16</t>
+          <t>6,44; 23,23</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,52; 19,05</t>
+          <t>1,84; 18,62</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,21; 25,73</t>
+          <t>10,05; 26,38</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,76; 21,72</t>
+          <t>10,34; 22,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>11,64; 49,31</t>
+          <t>10,98; 46,4</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,83; 37,34</t>
+          <t>2,94; 36,14</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>20,87; 63,2</t>
+          <t>19,84; 64,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>20,44; 53,67</t>
+          <t>21,48; 54,95</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>11,09; 15,1</t>
+          <t>10,76; 14,89</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>8,1; 12,23</t>
+          <t>7,95; 11,99</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>6,13; 10,02</t>
+          <t>6,03; 9,93</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,78; 9,16</t>
+          <t>1,75; 8,96</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>66,42; 102,7</t>
+          <t>64,22; 100,58</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>46,43; 78,67</t>
+          <t>44,52; 76,17</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>36,78; 67,25</t>
+          <t>36,13; 67,32</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>11,18; 66,38</t>
+          <t>11,21; 62,96</t>
         </is>
       </c>
     </row>
